--- a/trained_models_old_clean/MLP/parkinsons/results_table.xlsx
+++ b/trained_models_old_clean/MLP/parkinsons/results_table.xlsx
@@ -504,11 +504,11 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>{'beta_1': 0.5694768312146749, 'beta_2': 0.7450179703622319, 'epsilon': 0.3526833540570616, 'learning_rate': 'invscaling', 'momentum': 0.9160233696334701, 'nesterovs_momentum': False, 'solver': 'lbfgs', 'validation_fraction': 0.6827553511108365}</t>
+          <t>{'beta_1': 0.9605927561922608, 'beta_2': 0.12141669440209722, 'epsilon': 0.09906428797137679, 'learning_rate': 'invscaling', 'momentum': 0.6224848742605995, 'nesterovs_momentum': True, 'solver': 'lbfgs', 'validation_fraction': 0.603038139426371}</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>0.8370044052863436</v>
+        <v>0.8193832599118943</v>
       </c>
     </row>
     <row r="3">
@@ -540,11 +540,11 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>{'beta_1': 0.5216536931331169, 'beta_2': 0.8527524362539758, 'epsilon': 0.8885584609070507, 'learning_rate': 'constant', 'momentum': 0.11804156469474747, 'nesterovs_momentum': True, 'solver': 'lbfgs', 'validation_fraction': 0.49159142716951554}</t>
+          <t>{'beta_1': 0.4214226733019249, 'beta_2': 0.38793128395292603, 'epsilon': 0.1602331427702575, 'learning_rate': 'invscaling', 'momentum': 0.8956912912102034, 'nesterovs_momentum': False, 'solver': 'lbfgs', 'validation_fraction': 0.8783724953799941}</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>0.8370044052863436</v>
+        <v>0.7312775330396476</v>
       </c>
     </row>
     <row r="4">
@@ -576,11 +576,11 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>{'beta_1': 0.19300643724429972, 'beta_2': 0.03311110089267319, 'epsilon': 0.5833754064563448, 'learning_rate': 'constant', 'momentum': 0.3405875997076052, 'nesterovs_momentum': True, 'solver': 'lbfgs', 'validation_fraction': 0.2402622011512725}</t>
+          <t>{'beta_1': 0.4142472780505331, 'beta_2': 0.2642910564925223, 'epsilon': 0.7734594557447825, 'learning_rate': 'constant', 'momentum': 0.5684339488686485, 'nesterovs_momentum': True, 'solver': 'lbfgs', 'validation_fraction': 0.6176354970758771}</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>0.7312775330396476</v>
+        <v>0.7841409691629956</v>
       </c>
     </row>
     <row r="5">
@@ -612,11 +612,11 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>{'beta_1': 0.61323399556084, 'beta_2': 0.7156937147358908, 'epsilon': 0.2872158695089587, 'learning_rate': 'adaptive', 'momentum': 0.23454990206703086, 'nesterovs_momentum': True, 'solver': 'lbfgs', 'validation_fraction': 0.19026050892333246}</t>
+          <t>{'beta_1': 0.3887455424240846, 'beta_2': 0.9511905545981254, 'epsilon': 0.29972889055645363, 'learning_rate': 'adaptive', 'momentum': 0.8863046660865599, 'nesterovs_momentum': True, 'solver': 'lbfgs', 'validation_fraction': 0.9078755943543261}</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>0.7312775330396476</v>
+        <v>0.8017621145374449</v>
       </c>
     </row>
     <row r="6">
@@ -648,11 +648,11 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>{'beta_1': 0.05111926735386998, 'beta_2': 0.10397468759931923, 'epsilon': 0.6138236250432934, 'learning_rate': 'adaptive', 'momentum': 0.7255735341014894, 'nesterovs_momentum': True, 'solver': 'lbfgs', 'validation_fraction': 0.7731100525054192}</t>
+          <t>{'beta_1': 0.04307512681418265, 'beta_2': 0.39381368275498735, 'epsilon': 0.8988351273012174, 'learning_rate': 'invscaling', 'momentum': 0.28533602462541374, 'nesterovs_momentum': False, 'solver': 'lbfgs', 'validation_fraction': 0.8274282541238485}</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>0.8105726872246696</v>
+        <v>0.8193832599118943</v>
       </c>
     </row>
     <row r="7">
@@ -684,11 +684,11 @@
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>{'beta_1': 0.3912753413598011, 'beta_2': 0.9564371379722508, 'epsilon': 0.47734815263293473, 'learning_rate': 'invscaling', 'momentum': 0.9459202389602205, 'nesterovs_momentum': True, 'solver': 'lbfgs', 'validation_fraction': 0.8143851000802041}</t>
+          <t>{'beta_1': 0.6796898841407999, 'beta_2': 0.7392062958063914, 'epsilon': 0.9659889920187665, 'learning_rate': 'invscaling', 'momentum': 0.14297878261938546, 'nesterovs_momentum': True, 'solver': 'lbfgs', 'validation_fraction': 0.667803445340725}</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>0.7312775330396476</v>
+        <v>0.8281938325991189</v>
       </c>
     </row>
     <row r="8">
@@ -720,11 +720,11 @@
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>{'beta_1': 0.6292719678840203, 'beta_2': 0.7743630713990834, 'epsilon': 0.4046364487929541, 'learning_rate': 'invscaling', 'momentum': 0.0015945706042945762, 'nesterovs_momentum': False, 'solver': 'lbfgs', 'validation_fraction': 0.7791109940193555}</t>
+          <t>{'beta_1': 0.7735785965307255, 'beta_2': 0.559813330110261, 'epsilon': 0.08241100957801228, 'learning_rate': 'adaptive', 'momentum': 0.8850222549385791, 'nesterovs_momentum': True, 'solver': 'lbfgs', 'validation_fraction': 0.009687626994602683}</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>0.8237885462555066</v>
+        <v>0.7312775330396476</v>
       </c>
     </row>
     <row r="9">
@@ -756,11 +756,11 @@
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>{'beta_1': 0.519094064086862, 'beta_2': 0.6599215566819873, 'epsilon': 0.5656267886268035, 'learning_rate': 'constant', 'momentum': 0.2626108832218125, 'nesterovs_momentum': False, 'solver': 'lbfgs', 'validation_fraction': 0.1670891885098651}</t>
+          <t>{'beta_1': 0.4441807347423176, 'beta_2': 0.9291962358814533, 'epsilon': 0.18108639448569455, 'learning_rate': 'constant', 'momentum': 0.5078736664026768, 'nesterovs_momentum': False, 'solver': 'lbfgs', 'validation_fraction': 0.5151529471065713}</t>
         </is>
       </c>
       <c r="H9" t="n">
-        <v>0.7312775330396476</v>
+        <v>0.8105726872246696</v>
       </c>
     </row>
     <row r="10">
@@ -792,11 +792,11 @@
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>{'beta_1': 0.8717780047919479, 'beta_2': 0.27326849278082016, 'epsilon': 0.7972487870786511, 'learning_rate': 'invscaling', 'momentum': 0.6798794564067695, 'nesterovs_momentum': False, 'solver': 'lbfgs', 'validation_fraction': 0.48340861659875267}</t>
+          <t>{'beta_1': 0.5694768312146749, 'beta_2': 0.7450179703622319, 'epsilon': 0.3526833540570616, 'learning_rate': 'invscaling', 'momentum': 0.9160233696334701, 'nesterovs_momentum': False, 'solver': 'lbfgs', 'validation_fraction': 0.6827553511108365}</t>
         </is>
       </c>
       <c r="H10" t="n">
-        <v>0.8281938325991189</v>
+        <v>0.8237885462555066</v>
       </c>
     </row>
     <row r="11">
@@ -828,11 +828,11 @@
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>{'beta_1': 0.9166219467725615, 'beta_2': 0.7569765358478867, 'epsilon': 0.061239381816285944, 'learning_rate': 'constant', 'momentum': 0.7915164945083926, 'nesterovs_momentum': True, 'solver': 'lbfgs', 'validation_fraction': 0.9786304632912902}</t>
+          <t>{'beta_1': 0.8721175819534853, 'beta_2': 0.998853974216978, 'epsilon': 0.08020455051245581, 'learning_rate': 'invscaling', 'momentum': 0.685467145913117, 'nesterovs_momentum': True, 'solver': 'lbfgs', 'validation_fraction': 0.04492978106568479}</t>
         </is>
       </c>
       <c r="H11" t="n">
-        <v>0.8237885462555066</v>
+        <v>0.7312775330396476</v>
       </c>
     </row>
     <row r="12">
@@ -864,11 +864,11 @@
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>{'beta_1': 0.44159360209219534, 'beta_2': 0.5194324221962674, 'epsilon': 0.693262454523613, 'learning_rate': 'invscaling', 'momentum': 0.46100682934939485, 'nesterovs_momentum': False, 'solver': 'lbfgs', 'validation_fraction': 0.5391182349867721}</t>
+          <t>{'beta_1': 0.4887627777796243, 'beta_2': 0.7060789358082146, 'epsilon': 0.5446559959678442, 'learning_rate': 'adaptive', 'momentum': 0.826113660191025, 'nesterovs_momentum': True, 'solver': 'lbfgs', 'validation_fraction': 0.7540524075873528}</t>
         </is>
       </c>
       <c r="H12" t="n">
-        <v>0.8193832599118943</v>
+        <v>0.8590308370044053</v>
       </c>
     </row>
     <row r="13">
@@ -900,11 +900,11 @@
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>{'beta_1': 0.6508527181139733, 'beta_2': 0.38159210878680017, 'epsilon': 0.33820372777845686, 'learning_rate': 'invscaling', 'momentum': 0.6141750023638414, 'nesterovs_momentum': False, 'solver': 'lbfgs', 'validation_fraction': 0.1992281464241792}</t>
+          <t>{'beta_1': 0.24917062101539475, 'beta_2': 0.10580024872734997, 'epsilon': 0.9500016584443387, 'learning_rate': 'constant', 'momentum': 0.3581074751151223, 'nesterovs_momentum': True, 'solver': 'lbfgs', 'validation_fraction': 0.9167270193301819}</t>
         </is>
       </c>
       <c r="H13" t="n">
-        <v>0.7312775330396476</v>
+        <v>0.8193832599118943</v>
       </c>
     </row>
     <row r="14">
@@ -936,11 +936,11 @@
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>{'beta_1': 0.18086062984940418, 'beta_2': 0.7629831203210261, 'epsilon': 0.06128419048861812, 'learning_rate': 'constant', 'momentum': 0.8258616403155806, 'nesterovs_momentum': True, 'solver': 'lbfgs', 'validation_fraction': 0.23856602572266783}</t>
+          <t>{'beta_1': 0.8023409362111764, 'beta_2': 0.03714396089515617, 'epsilon': 0.7705495326661607, 'learning_rate': 'adaptive', 'momentum': 0.1648055898475378, 'nesterovs_momentum': False, 'solver': 'lbfgs', 'validation_fraction': 0.13643236902046962}</t>
         </is>
       </c>
       <c r="H14" t="n">
-        <v>0.8193832599118943</v>
+        <v>0.8281938325991189</v>
       </c>
     </row>
     <row r="15">
@@ -972,11 +972,11 @@
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>{'beta_1': 0.08498174250517425, 'beta_2': 0.2329405774274087, 'epsilon': 0.08129034701900123, 'learning_rate': 'adaptive', 'momentum': 0.3676261733862233, 'nesterovs_momentum': False, 'solver': 'lbfgs', 'validation_fraction': 0.6780594102120125}</t>
+          <t>{'beta_1': 0.946612751169439, 'beta_2': 0.6475340962509533, 'epsilon': 0.6639261533272113, 'learning_rate': 'invscaling', 'momentum': 0.5595705341197842, 'nesterovs_momentum': True, 'solver': 'lbfgs', 'validation_fraction': 0.6004710432403803}</t>
         </is>
       </c>
       <c r="H15" t="n">
-        <v>0.8414096916299559</v>
+        <v>0.8193832599118943</v>
       </c>
     </row>
     <row r="16">
@@ -1008,11 +1008,11 @@
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>{'beta_1': 0.6869017041950402, 'beta_2': 0.04257331712662113, 'epsilon': 0.5486880218735323, 'learning_rate': 'adaptive', 'momentum': 0.396222744661744, 'nesterovs_momentum': False, 'solver': 'lbfgs', 'validation_fraction': 0.22082428411043153}</t>
+          <t>{'beta_1': 0.5271870108472929, 'beta_2': 0.23728561484836336, 'epsilon': 0.27103479515720774, 'learning_rate': 'invscaling', 'momentum': 0.5323203282585608, 'nesterovs_momentum': True, 'solver': 'lbfgs', 'validation_fraction': 0.5171213804274264}</t>
         </is>
       </c>
       <c r="H16" t="n">
-        <v>0.8458149779735683</v>
+        <v>0.8370044052863436</v>
       </c>
     </row>
     <row r="17">
@@ -1044,11 +1044,11 @@
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>{'beta_1': 0.9545104673724751, 'beta_2': 0.5977176533953225, 'epsilon': 0.11879802520386755, 'learning_rate': 'invscaling', 'momentum': 0.9087334407983848, 'nesterovs_momentum': True, 'solver': 'lbfgs', 'validation_fraction': 0.14543560340536665}</t>
+          <t>{'beta_1': 0.3759651167322159, 'beta_2': 0.06171729066506716, 'epsilon': 0.38508415698973375, 'learning_rate': 'constant', 'momentum': 0.9881924181265406, 'nesterovs_momentum': False, 'solver': 'lbfgs', 'validation_fraction': 0.7921537410440993}</t>
         </is>
       </c>
       <c r="H17" t="n">
-        <v>0.8325991189427313</v>
+        <v>0.8281938325991189</v>
       </c>
     </row>
     <row r="18">
@@ -1080,11 +1080,11 @@
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>{'beta_1': 0.0849909989586575, 'beta_2': 0.45227613022865165, 'epsilon': 0.9317328660123573, 'learning_rate': 'constant', 'momentum': 0.3114860684923213, 'nesterovs_momentum': False, 'solver': 'lbfgs', 'validation_fraction': 0.6972742926194663}</t>
+          <t>{'beta_1': 0.28685443267485683, 'beta_2': 0.44629001466989243, 'epsilon': 0.12367189482556977, 'learning_rate': 'constant', 'momentum': 0.9792702400358185, 'nesterovs_momentum': False, 'solver': 'lbfgs', 'validation_fraction': 0.8809980607861312}</t>
         </is>
       </c>
       <c r="H18" t="n">
-        <v>0.8370044052863436</v>
+        <v>0.8149779735682819</v>
       </c>
     </row>
     <row r="19">
@@ -1116,11 +1116,11 @@
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>{'beta_1': 0.8405658295134588, 'beta_2': 0.20948245257676695, 'epsilon': 0.8731547940405725, 'learning_rate': 'constant', 'momentum': 0.27996546408812184, 'nesterovs_momentum': False, 'solver': 'lbfgs', 'validation_fraction': 0.25232305138669897}</t>
+          <t>{'beta_1': 0.5744866490705209, 'beta_2': 0.25651104863639224, 'epsilon': 0.23655324658624946, 'learning_rate': 'constant', 'momentum': 0.3296511575814126, 'nesterovs_momentum': True, 'solver': 'lbfgs', 'validation_fraction': 0.10816552447633765}</t>
         </is>
       </c>
       <c r="H19" t="n">
-        <v>0.8281938325991189</v>
+        <v>0.8193832599118943</v>
       </c>
     </row>
     <row r="20">
@@ -1152,11 +1152,11 @@
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>{'beta_1': 0.22409271194576452, 'beta_2': 0.09774664000954002, 'epsilon': 0.8613293259042616, 'learning_rate': 'constant', 'momentum': 0.3436055031480987, 'nesterovs_momentum': False, 'solver': 'lbfgs', 'validation_fraction': 0.4113724140379379}</t>
+          <t>{'beta_1': 0.7544844029021169, 'beta_2': 0.11702474626133386, 'epsilon': 0.3558997110594858, 'learning_rate': 'invscaling', 'momentum': 0.4545898672304828, 'nesterovs_momentum': False, 'solver': 'lbfgs', 'validation_fraction': 0.3474596681158475}</t>
         </is>
       </c>
       <c r="H20" t="n">
-        <v>0.8325991189427313</v>
+        <v>0.8149779735682819</v>
       </c>
     </row>
     <row r="21">
@@ -1190,11 +1190,11 @@
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>{'beta_1': 0.8871556617122927, 'beta_2': 0.7079002294098619, 'epsilon': 0.277495899957879, 'learning_rate': 'constant', 'momentum': 0.5249704422542643, 'nesterovs_momentum': False, 'solver': 'lbfgs', 'validation_fraction': 0.3335074657912753}</t>
+          <t>{'beta_1': 0.04044956203133352, 'beta_2': 0.4913894165920973, 'epsilon': 0.8142308472831555, 'learning_rate': 'constant', 'momentum': 0.6939881399885446, 'nesterovs_momentum': True, 'solver': 'lbfgs', 'validation_fraction': 0.5704366902119271}</t>
         </is>
       </c>
       <c r="H21" t="n">
-        <v>0.8193832599118943</v>
+        <v>0.7312775330396476</v>
       </c>
     </row>
   </sheetData>
